--- a/data/trans_orig/P62A$jubilacion-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62A$jubilacion-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F56354-E2BB-48F5-BC35-0EDD60E616B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D68100C-5258-49DA-A2EA-5E5A40472C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{827350D8-D3F3-4835-A222-1B9F7CDA15A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6614801-24FC-4C30-808E-B76156C0FC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="549">
-  <si>
-    <t>Población según tipo de pensión que percibe en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="548">
+  <si>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -491,7 +491,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según tipo de pensión que percibe en 2012</t>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>84,27%</t>
@@ -896,7 +896,7 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>Población según tipo de pensión que percibe en 2016</t>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -1289,403 +1289,400 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>Población según tipo de pensión que percibe en 2023</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>Población según tipo de pensión que percibe (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61B2021-85B0-4015-B8F5-1CC1C45021D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E679E05-6C9F-4B71-870F-12F4A05F4ACC}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2734,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B2D723-C738-41BE-8BC8-9B13A55EAA59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58B6055-17FC-4989-898B-C6D495768F02}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B78C0E-45E3-4747-B505-14347E4D6AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2965312-025A-458F-B21B-1EF0B43E908E}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4008,7 +4005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3626072-E9B0-4396-897B-D5F77EB858D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B2952-C2A3-4815-9DF1-36E096F7EB38}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4114,13 +4111,13 @@
         <v>422</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4129,31 +4126,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4162,31 +4159,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4195,31 +4192,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4230,31 +4227,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4263,31 +4260,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,31 +4293,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4329,31 +4326,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4364,31 +4361,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4397,31 +4394,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4430,31 +4427,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>502</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4463,31 +4460,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4498,31 +4495,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4531,31 +4528,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4564,31 +4561,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4597,31 +4594,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
